--- a/Input/Allianz/addon.xlsx
+++ b/Input/Allianz/addon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dental-info" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="Repat-Addon" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Dental-Addon'!$A$1:$F$121</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity-info'!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -174,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -207,11 +208,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -220,11 +217,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,6 +283,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,7 +299,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,20 +311,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -339,6 +328,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -467,13 +460,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,22 +476,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -761,7 +754,7 @@
       <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -1117,9 +1110,9 @@
         <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>785</v>
-      </c>
-      <c r="F32" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1137,9 +1130,9 @@
         <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>819</v>
-      </c>
-      <c r="F33" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1157,9 +1150,9 @@
         <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1532</v>
-      </c>
-      <c r="F34" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1177,9 +1170,9 @@
         <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1767</v>
-      </c>
-      <c r="F35" s="6" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1197,9 +1190,9 @@
         <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F36" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1217,9 +1210,9 @@
         <v>2</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>304</v>
-      </c>
-      <c r="F37" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1237,9 +1230,9 @@
         <v>2</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>321</v>
-      </c>
-      <c r="F38" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1257,9 +1250,9 @@
         <v>2</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>696</v>
-      </c>
-      <c r="F39" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1277,9 +1270,9 @@
         <v>2</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>812</v>
-      </c>
-      <c r="F40" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1297,9 +1290,9 @@
         <v>2</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>989</v>
-      </c>
-      <c r="F41" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1317,9 +1310,9 @@
         <v>3</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="F42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1337,9 +1330,9 @@
         <v>3</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>212</v>
-      </c>
-      <c r="F43" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1357,9 +1350,9 @@
         <v>3</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>446</v>
-      </c>
-      <c r="F44" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1377,9 +1370,9 @@
         <v>3</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>488</v>
-      </c>
-      <c r="F45" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1397,9 +1390,9 @@
         <v>3</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>546</v>
-      </c>
-      <c r="F46" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1417,9 +1410,9 @@
         <v>1</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>785</v>
-      </c>
-      <c r="F47" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1437,9 +1430,9 @@
         <v>1</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>819</v>
-      </c>
-      <c r="F48" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1457,9 +1450,9 @@
         <v>1</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1532</v>
-      </c>
-      <c r="F49" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1477,9 +1470,9 @@
         <v>1</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1767</v>
-      </c>
-      <c r="F50" s="6" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1497,9 +1490,9 @@
         <v>1</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F51" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1517,9 +1510,9 @@
         <v>2</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>304</v>
-      </c>
-      <c r="F52" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1537,9 +1530,9 @@
         <v>2</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>321</v>
-      </c>
-      <c r="F53" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1557,9 +1550,9 @@
         <v>2</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>696</v>
-      </c>
-      <c r="F54" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1577,9 +1570,9 @@
         <v>2</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>812</v>
-      </c>
-      <c r="F55" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1597,9 +1590,9 @@
         <v>2</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>989</v>
-      </c>
-      <c r="F56" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1617,9 +1610,9 @@
         <v>3</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="F57" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1637,9 +1630,9 @@
         <v>3</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>212</v>
-      </c>
-      <c r="F58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1657,9 +1650,9 @@
         <v>3</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>446</v>
-      </c>
-      <c r="F59" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1677,9 +1670,9 @@
         <v>3</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>488</v>
-      </c>
-      <c r="F60" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1697,13 +1690,13 @@
         <v>3</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>546</v>
-      </c>
-      <c r="F61" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>25</v>
       </c>
@@ -1743,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>25</v>
       </c>
@@ -1783,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>25</v>
       </c>
@@ -1843,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>25</v>
       </c>
@@ -1883,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>25</v>
       </c>
@@ -1923,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>25</v>
       </c>
@@ -1963,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>25</v>
       </c>
@@ -2003,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>25</v>
       </c>
@@ -2023,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>25</v>
       </c>
@@ -2043,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>25</v>
       </c>
@@ -2063,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>25</v>
       </c>
@@ -2083,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>25</v>
       </c>
@@ -2103,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>25</v>
       </c>
@@ -2123,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>25</v>
       </c>
@@ -2143,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>25</v>
       </c>
@@ -2163,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>25</v>
       </c>
@@ -2183,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>25</v>
       </c>
@@ -2203,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>25</v>
       </c>
@@ -2263,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>25</v>
       </c>
@@ -2283,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>25</v>
       </c>
@@ -2303,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>25</v>
       </c>
@@ -2319,11 +2312,11 @@
       <c r="E92" s="0" t="n">
         <v>1636</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
@@ -2339,11 +2332,11 @@
       <c r="E93" s="0" t="n">
         <v>1707</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>25</v>
       </c>
@@ -2359,11 +2352,11 @@
       <c r="E94" s="0" t="n">
         <v>3192</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>25</v>
       </c>
@@ -2379,11 +2372,11 @@
       <c r="E95" s="0" t="n">
         <v>3683</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>25</v>
       </c>
@@ -2399,11 +2392,11 @@
       <c r="E96" s="0" t="n">
         <v>3974</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>25</v>
       </c>
@@ -2419,11 +2412,11 @@
       <c r="E97" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>25</v>
       </c>
@@ -2439,11 +2432,11 @@
       <c r="E98" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>25</v>
       </c>
@@ -2459,11 +2452,11 @@
       <c r="E99" s="0" t="n">
         <v>1450</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>25</v>
       </c>
@@ -2479,11 +2472,11 @@
       <c r="E100" s="0" t="n">
         <v>1691</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>25</v>
       </c>
@@ -2499,11 +2492,11 @@
       <c r="E101" s="0" t="n">
         <v>2062</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>25</v>
       </c>
@@ -2519,11 +2512,11 @@
       <c r="E102" s="0" t="n">
         <v>418</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>25</v>
       </c>
@@ -2539,11 +2532,11 @@
       <c r="E103" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>25</v>
       </c>
@@ -2559,11 +2552,11 @@
       <c r="E104" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>25</v>
       </c>
@@ -2579,11 +2572,11 @@
       <c r="E105" s="0" t="n">
         <v>1016</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>25</v>
       </c>
@@ -2599,11 +2592,11 @@
       <c r="E106" s="0" t="n">
         <v>1137</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>25</v>
       </c>
@@ -2619,11 +2612,11 @@
       <c r="E107" s="0" t="n">
         <v>1636</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>25</v>
       </c>
@@ -2639,11 +2632,11 @@
       <c r="E108" s="0" t="n">
         <v>1707</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>25</v>
       </c>
@@ -2659,11 +2652,11 @@
       <c r="E109" s="0" t="n">
         <v>3192</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>25</v>
       </c>
@@ -2679,11 +2672,11 @@
       <c r="E110" s="0" t="n">
         <v>3683</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>25</v>
       </c>
@@ -2699,11 +2692,11 @@
       <c r="E111" s="0" t="n">
         <v>3974</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -2719,11 +2712,11 @@
       <c r="E112" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>25</v>
       </c>
@@ -2739,11 +2732,11 @@
       <c r="E113" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>25</v>
       </c>
@@ -2759,11 +2752,11 @@
       <c r="E114" s="0" t="n">
         <v>1450</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>25</v>
       </c>
@@ -2779,11 +2772,11 @@
       <c r="E115" s="0" t="n">
         <v>1691</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>25</v>
       </c>
@@ -2799,11 +2792,11 @@
       <c r="E116" s="0" t="n">
         <v>2062</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>25</v>
       </c>
@@ -2819,11 +2812,11 @@
       <c r="E117" s="0" t="n">
         <v>418</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>25</v>
       </c>
@@ -2839,11 +2832,11 @@
       <c r="E118" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>25</v>
       </c>
@@ -2859,11 +2852,11 @@
       <c r="E119" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>25</v>
       </c>
@@ -2879,11 +2872,11 @@
       <c r="E120" s="0" t="n">
         <v>1016</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>25</v>
       </c>
@@ -2899,11 +2892,18 @@
       <c r="E121" s="0" t="n">
         <v>1137</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="7" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F121">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Worldwide excluding USA"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2911,6 +2911,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2929,7 +2930,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="62.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="62.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2952,10 +2953,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2972,10 +2973,12 @@
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="b">
+      <c r="E2" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -2998,10 +3001,12 @@
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="b">
+      <c r="E3" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -3024,10 +3029,12 @@
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="b">
+      <c r="E4" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -3323,7 +3330,7 @@
       <c r="F10" s="0" t="n">
         <v>3014</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -3349,7 +3356,7 @@
       <c r="F11" s="0" t="n">
         <v>1507</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -3375,7 +3382,7 @@
       <c r="F12" s="0" t="n">
         <v>1983</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -3401,7 +3408,7 @@
       <c r="F13" s="0" t="n">
         <v>992</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -3427,7 +3434,7 @@
       <c r="F14" s="0" t="n">
         <v>3014</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -3453,7 +3460,7 @@
       <c r="F15" s="0" t="n">
         <v>1507</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="0" t="s">
@@ -3479,7 +3486,7 @@
       <c r="F16" s="0" t="n">
         <v>1983</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="0" t="s">
@@ -3505,7 +3512,7 @@
       <c r="F17" s="0" t="n">
         <v>992</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="0" t="s">
@@ -3739,7 +3746,7 @@
       <c r="F26" s="0" t="n">
         <v>6630</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="0" t="s">
@@ -3765,7 +3772,7 @@
       <c r="F27" s="0" t="n">
         <v>3315</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -3791,7 +3798,7 @@
       <c r="F28" s="0" t="n">
         <v>4362</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -3817,7 +3824,7 @@
       <c r="F29" s="0" t="n">
         <v>2182</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -3843,7 +3850,7 @@
       <c r="F30" s="0" t="n">
         <v>6630</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -3869,7 +3876,7 @@
       <c r="F31" s="0" t="n">
         <v>3315</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="0" t="s">
@@ -3895,7 +3902,7 @@
       <c r="F32" s="0" t="n">
         <v>4362</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -3921,7 +3928,7 @@
       <c r="F33" s="0" t="n">
         <v>2182</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H33" s="0" t="s">
@@ -3978,10 +3985,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -3996,10 +4003,12 @@
       <c r="D2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="b">
+      <c r="E2" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -4024,7 +4033,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4034,7 +4043,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
